--- a/biology/Botanique/Petit_Courbu/Petit_Courbu.xlsx
+++ b/biology/Botanique/Petit_Courbu/Petit_Courbu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Petit Courbu B[1] est un cépage blanc français.
+Le Petit Courbu B est un cépage blanc français.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est cultivé dans le vignoble du Sud-Ouest et plus particulièrement dans le piémont pyrénéen (Jurançon, Pacherenc du Vic-Bilh ou Côtes de saint-mont).
 Afin de préserver les réserves génétiques de ce cépage rare, une collection de clones a été mise en place. Dans cette population, deux clones ont été agréés. Ils sont disponibles à la multiplication en pépinière. Ils portent les numéros 813 et 885. Le premier est un peu plus productif.
@@ -544,7 +558,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le petit courbu présente une extrémité de rameau cotonneux. Les jeunes feuilles sont carminées à plages bronzées.
 Le rameau comporte de nombreuses vrilles qui s'enroulent entre elles.
@@ -580,12 +596,87 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Culturales
-Ce cépage est peu vigoureux et un petit producteur. Il doit être taillé long pour permettre une récolte significative.
-Sensibilité aux maladies
-Il se montre assez sensible à la pourriture grise.
-Technologiques
-Il donne des vins très fins, aromatiques. Rarement commercialisé seul, il est souvent utilisé en association avec l'arrufiac et le petit manseng. Il apporte à l'assemblage complexité et équilibre, que ce soit pour des vins secs ou moelleux.
+          <t>Culturales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cépage est peu vigoureux et un petit producteur. Il doit être taillé long pour permettre une récolte significative.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Petit_Courbu</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Petit_Courbu</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Aptitudes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sensibilité aux maladies</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se montre assez sensible à la pourriture grise.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Petit_Courbu</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Petit_Courbu</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Aptitudes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Technologiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il donne des vins très fins, aromatiques. Rarement commercialisé seul, il est souvent utilisé en association avec l'arrufiac et le petit manseng. Il apporte à l'assemblage complexité et équilibre, que ce soit pour des vins secs ou moelleux.
 </t>
         </is>
       </c>
